--- a/app/src/test/resources/table_5.3B.1.3-1.xlsx
+++ b/app/src/test/resources/table_5.3B.1.3-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\repo\convert_3gpp_excel\app\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyx/home/wizard/repo/convert_3gpp_excel/app/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF5412C-1A4B-4D71-92D6-ED539E06CE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F94E8-0080-8442-A4BC-1FD154338BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23596" windowHeight="15076" activeTab="1" xr2:uid="{045FC3E2-48FD-4BEA-AF35-C3B0B7F45E1C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23600" windowHeight="15080" activeTab="1" xr2:uid="{045FC3E2-48FD-4BEA-AF35-C3B0B7F45E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5.3B。3-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>EN-DC configurations and bandwidth combination sets defined for intra-band non-contiguous EN-DC</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -245,6 +241,9 @@
   <si>
     <t>G48</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3B.1.3-1</t>
   </si>
 </sst>
 </file>
@@ -255,7 +254,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,7 +293,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -554,6 +553,60 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
@@ -581,63 +634,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,7 +656,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -959,55 +958,55 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="20.46484375" customWidth="1"/>
+    <col min="1" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" ht="23.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -1022,18 +1021,18 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="23.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="23.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="4"/>
@@ -1088,7 +1087,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="23.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="8">
@@ -1105,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="23.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
@@ -1118,7 +1117,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="13">
@@ -1131,7 +1130,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
@@ -1146,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="13">
@@ -1161,7 +1160,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1174,7 +1173,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="93.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="35.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1208,8 +1207,8 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -1229,9 +1228,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="42"/>
-      <c r="B18" s="41" t="s">
+    <row r="18" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1241,25 +1240,25 @@
         <v>22</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="41">
+      <c r="F18" s="29">
         <v>60</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="42"/>
-      <c r="B19" s="44"/>
+    <row r="19" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="14"/>
       <c r="D19" s="16"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
         <v>22</v>
@@ -1267,21 +1266,21 @@
       <c r="E20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="27" t="s">
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="4"/>
@@ -1315,7 +1314,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="8">
@@ -1332,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1343,7 +1342,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="7"/>
@@ -1356,52 +1355,57 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="24" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+    </row>
+    <row r="30" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E3"/>
@@ -1411,11 +1415,6 @@
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A21:G21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1427,15 +1426,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>32</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
@@ -1451,36 +1450,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/test/resources/table_5.3B.1.3-1.xlsx
+++ b/app/src/test/resources/table_5.3B.1.3-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyx/home/wizard/repo/convert_3gpp_excel/app/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\repo\convert_3gpp_excel\app\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F94E8-0080-8442-A4BC-1FD154338BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D78E5C4-194B-4099-BC56-394D4D5A4286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23600" windowHeight="15080" activeTab="1" xr2:uid="{045FC3E2-48FD-4BEA-AF35-C3B0B7F45E1C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23596" windowHeight="15076" xr2:uid="{045FC3E2-48FD-4BEA-AF35-C3B0B7F45E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>E-UTRA – NR configuration / Bandwidth combination set</t>
   </si>
@@ -110,12 +109,6 @@
     <t>40, 50, 60, 80,100</t>
   </si>
   <si>
-    <t>10, 20, 30, 40, 50, 60, 80,100</t>
-  </si>
-  <si>
-    <t>20, 30, 40, 50, 60, 80,100</t>
-  </si>
-  <si>
     <r>
       <t>DC_48A_n48A</t>
     </r>
@@ -149,9 +142,6 @@
     </r>
   </si>
   <si>
-    <t>See CA_48D Bandwidth Combination Set 0 in TS 36.101 Table 5.6A.1-1</t>
-  </si>
-  <si>
     <t>5, 10, 15, 20, 25, 30, 40</t>
   </si>
   <si>
@@ -245,6 +235,29 @@
   <si>
     <t>5.3B.1.3-1</t>
   </si>
+  <si>
+    <t>40, 50, 60, 80, 100</t>
+  </si>
+  <si>
+    <t>40, 60, 80, 100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40, 50, 60, 80, 100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA_48D_BCS0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, 20, 30, 40, 50, 60</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, 40, 50, 60, 80, 100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +267,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -293,7 +306,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -636,7 +649,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,12 +664,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -954,16 +963,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF36011-3032-44DE-AA47-5E3BF1592897}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="20.5" customWidth="1"/>
+    <col min="1" max="7" width="20.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -974,7 +983,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -993,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1006,7 +1015,7 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="23.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -1021,9 +1030,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -1032,7 +1041,7 @@
       <c r="F5" s="34"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1053,18 +1062,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="8">
         <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="10">
@@ -1074,12 +1079,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="4"/>
       <c r="D8" s="8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8">
         <v>20</v>
@@ -1087,14 +1092,14 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="8">
         <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="10">
@@ -1104,12 +1109,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E10" s="8">
         <v>20</v>
@@ -1117,25 +1124,27 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="13">
         <v>20</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="13" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E12" s="13">
         <v>20</v>
@@ -1145,14 +1154,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="13">
         <v>10</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="10">
@@ -1160,12 +1169,12 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="13" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E14" s="13">
         <v>10</v>
@@ -1173,18 +1182,18 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="10">
@@ -1194,31 +1203,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8">
@@ -1228,16 +1237,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="30"/>
       <c r="B18" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="29">
@@ -1247,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="30"/>
       <c r="B19" s="32"/>
       <c r="C19" s="14"/>
@@ -1256,12 +1265,12 @@
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>10</v>
@@ -1269,9 +1278,9 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -1280,7 +1289,7 @@
       <c r="F21" s="34"/>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="4"/>
@@ -1314,7 +1323,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="8">
@@ -1331,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1342,7 +1351,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="7"/>
@@ -1355,9 +1364,9 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -1366,9 +1375,9 @@
       <c r="F27" s="37"/>
       <c r="G27" s="38"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -1377,9 +1386,9 @@
       <c r="F28" s="40"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -1388,9 +1397,9 @@
       <c r="F29" s="40"/>
       <c r="G29" s="41"/>
     </row>
-    <row r="30" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -1425,61 +1434,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A20285-E7EE-428F-A4C5-8686C6B7ED9B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B3" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
